--- a/tests/testthat/testdata_funnel_prop.xlsx
+++ b/tests/testthat/testdata_funnel_prop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.francis\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{99441975-DF3F-4506-ADE9-1FC7A0122243}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2169BC16-9CAD-4649-9EF7-878AC1DEFC7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6380" xr2:uid="{62DA01CD-2A6E-410F-94A1-DFD1AFF34A6E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6380" activeTab="1" xr2:uid="{62DA01CD-2A6E-410F-94A1-DFD1AFF34A6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sig" sheetId="1" r:id="rId1"/>
@@ -1339,7 +1339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A145CA4C-AAB3-49EE-8D52-C1E6E569F3CD}">
   <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5917,8 +5917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014B1418-1BE2-4690-97B0-25C2B3C3625F}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
